--- a/ADV_Cars_sales_CarsResearch_performer/Data/Output/chevrolet.xlsx
+++ b/ADV_Cars_sales_CarsResearch_performer/Data/Output/chevrolet.xlsx
@@ -14,7 +14,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+  <x:si>
+    <x:t>Chevrolet
+Optra
+2019
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/e2337dac609943fe8712d0d069de376c-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>480,000 EGP
+12,433 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sheikh Zayed, Giza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Cruze
+2014
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/cruze/d739b08e27e8426ebdc462f8430a0fd6-2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mokattam, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Optra
+2016
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/a009a7e60e1349cfa431599d62cef626-2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>395,000 EGP</x:t>
+  </x:si>
   <x:si>
     <x:t>Chevrolet
 Optra
@@ -25,10 +68,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/ec00763134e64d0d84608f5a943cf3e8-2009</x:t>
   </x:si>
   <x:si>
+    <x:t>320,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>Zagazig, Eastern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>330,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>Chevrolet
@@ -40,10 +83,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/chevrolet/cruze/bb75bb99f0eb4ea2bc63320a2de1d84a-2010</x:t>
   </x:si>
   <x:si>
+    <x:t>315,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>Zizinia, Alexandria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>315,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>Chevrolet
@@ -55,10 +98,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/091b81e204db4b7c80cebed96cf947fb-2017</x:t>
   </x:si>
   <x:si>
+    <x:t>385,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>Faisal, Giza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>385,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>Chevrolet
@@ -70,10 +113,10 @@
     <x:t>https://www.contactcars.com/en/newcars4sale/chevrolet/n-300/f449eae5e9284966adb4afd88751f769-2024</x:t>
   </x:si>
   <x:si>
+    <x:t>Down payment 95,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nasr City, Cairo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Down payment 95,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>Chevrolet
@@ -85,26 +128,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/c1b2f4c27d5c46b49d3cbc5a5c94ffce-2010</x:t>
   </x:si>
   <x:si>
+    <x:t>180,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>6th of October, Giza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180,000 EGP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chevrolet
-Optra
-2019
-Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/e2337dac609943fe8712d0d069de376c-2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sheikh Zayed, Giza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>480,000 EGP
-12,433 EGP/Month</x:t>
   </x:si>
   <x:si>
     <x:t>Chevrolet
@@ -116,26 +143,11 @@
     <x:t>https://www.contactcars.com/en/newcars4sale/chevrolet/optra/921eff0b5cdf4b338ed771c5b2c1279b-2023</x:t>
   </x:si>
   <x:si>
-    <x:t>Heliopolis, Cairo</x:t>
-  </x:si>
-  <x:si>
     <x:t>167,500 EGP
 4,315 EGP/Month</x:t>
   </x:si>
   <x:si>
-    <x:t>Chevrolet
-Cruze
-2014
-Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/cruze/d739b08e27e8426ebdc462f8430a0fd6-2014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mokattam, Cairo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>420,000 EGP</x:t>
+    <x:t>Heliopolis, Cairo</x:t>
   </x:si>
   <x:si>
     <x:t>Chevrolet
@@ -147,10 +159,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/chevrolet/n-300/1c1ba9edbe734e3396859eed0d8ff519-2015</x:t>
   </x:si>
   <x:si>
+    <x:t>250,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sheraton, Cairo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>Chevrolet
@@ -174,10 +186,192 @@
     <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/323f28c3733040519417731deefcedac-2007</x:t>
   </x:si>
   <x:si>
+    <x:t>260,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>10th of Ramadan, Eastern</x:t>
   </x:si>
   <x:si>
-    <x:t>260,000 EGP</x:t>
+    <x:t>Chevrolet
+Aveo
+2020
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/31aaaaeeab0c4c6a80371fa904132728-2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>450,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Cairo &amp; 5th Settlement, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Lanos
+2014
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/06028577fa9546a0a377f9a404da4558-2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>227,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Bagour, Monufia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Lanos
+2015
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/e7c1b4f2b4924771a44f294df18d1d7b-2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shbeen El Qanater, Qalyubia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Aveo
+2014
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/2712dc997933469cb6713099dd79749f-2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Lanos
+2009
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/e1c3b51c09d34471979d30ef842ee557-2009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>El Masala, Fayoum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Spark
+2012
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/spark/dbc2d58f76eb4844a2eba857a5be5659-2012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zahraa Maadi, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Optra
+2021
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/f5853b019f75471c97b76333426633b0-2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>480,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waili, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+N 300
+2021
+New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/newcars4sale/chevrolet/n-300/27c0d17f1268468cb8c5bc5e81f47586-2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176,150 EGP
+4,538 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Optra
+2010
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/685160bee8e043949fcd3d0fa957d896-2010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>325,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>El Sherouk City, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Aveo
+2019
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/9c45da9c0777471bb923a78f06495e56-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>390,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Victoria, Alexandria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Aveo
+2008
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/aca48f18fc634f0e94c11013c899034d-2008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>El Omranya, Giza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Optra
+2020
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/0ff56760c5714885ac2ae45cd41e478b-2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>470,000 EGP
+12,174 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Cruze
+2013
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/cruze/184336abd6cb42628ea707659ed9ff7f-2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>340,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madinaty, Cairo</x:t>
   </x:si>
   <x:si>
     <x:t>Chevrolet
@@ -194,71 +388,205 @@
   <x:si>
     <x:t>Chevrolet
 Aveo
-2020
-Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/31aaaaeeab0c4c6a80371fa904132728-2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Cairo &amp; 5th Settlement, Cairo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>450,000 EGP</x:t>
+2007
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/605790d6b3474c7b8d934e0001ddc6c5-2007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Optra
+2015
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/ed4b70a9509d429691656648573389b2-2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/e18deafc0c8c424f9ce6c778dd0bca86-2009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/cruze/817d0866b6fe41288c92bf8d2167bdc3-2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>430,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oasis Road, Giza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Aveo
+2010
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/7139a3b0989447fa8a57a002f2ca63df-2010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belbeis, Eastern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/d1c6a58626834e5da6b62ae1719212f5-2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>485,000 EGP
+12,333 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/d99188c73fbb4076a35b1821a815c497-2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hadayeq El Qoba, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/89647ad20c2a4dc5b4b6eb1899729152-2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>490,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bulaq Dakror, Giza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/487cf2e3f327431392fd8da75f530bea-2009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/f7a5847697eb4d00a607e4f17b4cf081-2010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>330,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kafr al-Dawwar, El Beheira</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/dbe6718d6a4741cfa556057646c99664-2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Muharram Bey, Alexandria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Aveo
+2009
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/69db7c2c322a4cc7b21e365ff6b64b75-2009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Al Ajmi, Alexandria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/411971331df5489db44c053fe13c215b-2011</x:t>
   </x:si>
   <x:si>
     <x:t>Chevrolet
 Lanos
+2013
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/01c8e122d3d1481b9af6f43bdf44c989-2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/6938ef0abd2d45f7aae2dd435432e76d-2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500,000 EGP
+12,715 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ain Shams, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/48398ee249434575b6dcd900a06d0d36-2010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/4d24e6b0cd514eeca989d47a607ad181-2009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basaten, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/cdf3c2a9758e4c6bb2c820c565a9b439-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>435,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>El Mohndseen, Giza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/4e6d2598d5f44705b96e8ba8a82b4e0d-2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/cd80e06fc396458aa88ad5475fef3130-2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>380,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shubra Al Khaimah, Qalyubia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/69064f9f8c7c4baa87b08265d9c04a09-2010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smouha, Alexandria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Captiva
 2014
 Used</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/06028577fa9546a0a377f9a404da4558-2014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Bagour, Monufia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>227,000 EGP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chevrolet
-Lanos
-2015
-Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/e7c1b4f2b4924771a44f294df18d1d7b-2015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shbeen El Qanater, Qalyubia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chevrolet
-Aveo
-2014
-Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/aveo/2712dc997933469cb6713099dd79749f-2014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320,000 EGP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chevrolet
-Lanos
-2009
-Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/lanos/e1c3b51c09d34471979d30ef842ee557-2009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>El Masala, Fayoum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145,000 EGP</x:t>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/captiva/065f4779da7e4b268810405b47a98d80-2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Giza, Giza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chevrolet
+Optra
+2008
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/chevrolet/optra/d4b41d257f554d1db0f1865ac71c6499-2008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>290,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakahlia, Dakahlia</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -654,102 +982,102 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>38</x:v>
@@ -766,18 +1094,18 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>45</x:v>
@@ -819,10 +1147,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -833,24 +1161,1186 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="D17" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
         <x:v>63</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="A49" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="A50" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="A51" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4">
+      <x:c r="A52" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
+      <x:c r="A53" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="A54" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
+      <x:c r="A55" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4">
+      <x:c r="A56" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="A57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4">
+      <x:c r="A58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4">
+      <x:c r="A59" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4">
+      <x:c r="A60" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4">
+      <x:c r="A61" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4">
+      <x:c r="A62" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="A63" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="A64" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="A65" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="A66" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4">
+      <x:c r="A67" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4">
+      <x:c r="A68" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4">
+      <x:c r="A69" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4">
+      <x:c r="A70" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4">
+      <x:c r="A71" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4">
+      <x:c r="A72" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4">
+      <x:c r="A73" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4">
+      <x:c r="A74" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4">
+      <x:c r="A75" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4">
+      <x:c r="A76" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4">
+      <x:c r="A77" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4">
+      <x:c r="A78" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4">
+      <x:c r="A79" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4">
+      <x:c r="A80" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4">
+      <x:c r="A81" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4">
+      <x:c r="A82" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4">
+      <x:c r="A83" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4">
+      <x:c r="A84" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4">
+      <x:c r="A85" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4">
+      <x:c r="A86" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:4">
+      <x:c r="A87" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:4">
+      <x:c r="A88" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:4">
+      <x:c r="A89" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:4">
+      <x:c r="A90" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:4">
+      <x:c r="A91" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:4">
+      <x:c r="A92" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:4">
+      <x:c r="A93" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:4">
+      <x:c r="A94" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:4">
+      <x:c r="A95" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:4">
+      <x:c r="A96" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:4">
+      <x:c r="A97" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:4">
+      <x:c r="A98" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:4">
+      <x:c r="A99" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:4">
+      <x:c r="A100" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>155</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
